--- a/inst/extdata/starter_kit/Study_Metadata.xlsx
+++ b/inst/extdata/starter_kit/Study_Metadata.xlsx
@@ -8,17 +8,17 @@
   <sheets>
     <sheet name="Meta" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Standards" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Domains" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Value Level" sheetId="5" state="visible" r:id="rId4"/>
-    <sheet name="Where Clauses" sheetId="6" state="visible" r:id="rId5"/>
-    <sheet name="Method" sheetId="7" state="visible" r:id="rId6"/>
-    <sheet name="Variables" sheetId="8" state="visible" r:id="rId7"/>
+    <sheet name="Domains" sheetId="9" state="visible" r:id="rId3"/>
+    <sheet name="Value Level" sheetId="10" state="visible" r:id="rId4"/>
+    <sheet name="Where Clauses" sheetId="11" state="visible" r:id="rId5"/>
+    <sheet name="Method" sheetId="12" state="visible" r:id="rId6"/>
+    <sheet name="Variables" sheetId="13" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
   <si>
     <t xml:space="preserve">Select</t>
   </si>
@@ -771,6 +771,924 @@
   </si>
   <si>
     <t xml:space="preserve">map_direct(column = "vsblfl")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_baseline_flag(visit_var = "visit", baseline_visit = "SCREENING", by = c("USUBJID", "VSTESTCD"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUBJID;VSTESTCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AESEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity/Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "aesev_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AESER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serious Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_if_else(condition = "toupper(aeser_raw) == \"Y\"", true_value = "Y", false_value = "N")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEDECOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictionary-Derived Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_coalesce(columns = c("aedecod", "aeterm"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AESTDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Day of Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_dy(dtc_var = "AESTDTC", ref_var = "RFSTDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_epoch(dtc_var = "AESTDTC", ref_var = "RFSTDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEOCCUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_occurrence(source_var = "aeterm", present_value = "Y")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITEID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Site Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "siteid")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "sex")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_trim_pad(column = "race", side = "both")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Arm Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "armcd")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of Planned Arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "arm")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMDECOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardized Medication Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_regex_replace(column = "cmdecod", pattern = "\\s+", replacement = " ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMROUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route of Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "cmroute_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMDOSFRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosing Frequency per Interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "cmdosfrq_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBSTRESN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric Rslt/Finding in Standard Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_numeric_round(column = "lborres")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Time of Specimen Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "lbdat", time_col = "lbtim")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Day of Specimen Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_dy(dtc_var = "LBDTC", ref_var = "RFSTDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Day of Measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_dy(dtc_var = "VSDTC", ref_var = "RFSTDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSTPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Time Point Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_tpt(source_var = "vstim")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completion Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_status(result_var = "VSORRES", not_done_value = "NOT DONE")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSLASTFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Observation Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_lastobs_flag(by = c("USUBJID", "VSTESTCD"), order_var = "VSDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUBJID;VSTESTCD;VSDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant(value = "DS")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSSEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSTERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reported Term for Disposition Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "dsterm")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSDECOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardized Disposition Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "dsdecod_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category for Disposition Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grouping Qualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "dscat_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSSTDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date/Time of Disposition Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "dsstdat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant(value = "EX")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXSEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "extrt")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXDOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "exdose")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXDOSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dose Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "exdosu_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXROUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "exroute_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXDOSFRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "exdosfrq_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXSTDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date/Time of Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "exstdat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXENDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date/Time of Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "exendat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant(value = "MH")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHSEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHTERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reported Term for Med History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "mhterm")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHDECOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_coalesce(columns = c("mhdecod", "mhterm"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category for Medical History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "mhcat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHSTDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date/Time of Med History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "mhstdat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHENDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date/Time of Med History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "mhendat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant(value = "QS")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSSEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSTESTCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionnaire Test Short Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "qstestcd")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSTEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionnaire Test Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "qstest")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category of Questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "qscat")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding in Original Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "qsorres")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSORRESU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "qsorresu")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Time of Finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "qsdat", time_col = "qstim")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSREASND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason Not Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_case_when(conditions = list("is.na(qsorres) | qsorres == \"\"" = "QUESTION NOT ASKED"), default = NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSEVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant(value = "SUBJECT")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS.VSTESTCD.SYSBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS.VSTESTCD.DIABP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS.VSTESTCD.HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS.VSTESTCD.WEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS.VSTESTCD.HEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNCTION_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNATURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE_DOMAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "srcvar")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy a source column directly to the target variable, with optional transform (toupper, tolower, trimws)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_constant(value = "MYVAL")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set variable to a constant value. Use 'auto' for STUDYID (auto-resolved from config)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ct_assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign_ct(column = "srcvar")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map source values through a controlled terminology codelist. Requires CODELIST_ID in metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_usubjid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usubjid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derive USUBJID from study ID and subject column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_seq(by = "USUBJID", order_by = "DTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate sequential numbering within grouped variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iso_dtc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format_iso_dtc(date_col = "dat", time_col = "tim")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parse date/time columns into ISO 8601 format (--DTC variables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_dy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate study day relative to reference date (RFSTDTC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_duration(start_dtc = "STRTDTC", end_dtc = "ENDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate duration between two --DTC variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_epoch(dtc_var = "DTC", ref_var = "RFSTDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign epoch based on reference date (requires config$epoch_map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visitnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visitnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derive visit number from visit name using config$visit_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visit(dy_var = "DY")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derive visit name using config$visit_map and optional study day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visitdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visitdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visitdy(visit_var = "VISIT")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derive study day of visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_tpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_tpt(source_var = "time_col")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derive planned time point from source time variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_numeric_round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric_round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_numeric_round(column = "srcvar")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round numeric values. Auto-uses significant_digits from metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_baseline_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_baseline_flag(visit_var = "VISIT", baseline_visit = "BASELINE", by = c("USUBJID","TESTCD"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag records matching baseline visit criterion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_lastobs_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastobs_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_lastobs_flag(by = c("USUBJID","TESTCD"), order_var = "DTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag last observation per subject/test group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ct_decode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_ct(column = "TESTCD")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decode a coded variable using its controlled terminology codelist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_coalesce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coalesce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First non-missing value from multiple columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_concat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concatenate values from multiple columns with separator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_if_else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_if_else(condition = "age &gt; 18", true_value = "Y", false_value = "N")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary conditional: if condition then true_value else false_value. Condition is an R expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_case_when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_case_when(conditions = list("cond1" = "val1", "cond2" = "val2"), default = NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-branch conditional logic. conditions is a named list: condition_expr = result_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_regex_extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex_extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_regex_extract(column = "srcvar", pattern = "(\\d+)")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract text using regex pattern with capture group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_regex_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_regex_replace(column = "srcvar", pattern = "\\s+", replacement = " ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace text matching regex pattern with replacement string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_trim_pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trim_pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_trim_pad(column = "srcvar", side = "both")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim whitespace and optionally pad to fixed width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_occurrence(source_var = "srcvar", present_value = "Y")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag presence/absence of a value in source variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_status(result_var = "ORRES", not_done_value = "NOT DONE")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derive completion status from result variable presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFXSTDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Time of First Study Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_concat(columns = c("rfstdtc", "rfendtc"), separator = "/")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHSTYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Year of Medical History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_regex_extract(column = "mhstdat", pattern = "(\\d{4})")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visit(visit_var = "visit")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISITDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned Study Day of Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visitdy(visit_var = "visit")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_visitnum(visit_var = "visit")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSSCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcategory for Disposition Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_ct(column = "dsscat_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_if_else(condition = "toupper(aeser_raw) %in% c(\"Y\", \"YES\")", true_value = "Y", false_value = "N")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBJID2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate Subject ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_concat(columns = c("armcd", "siteid"), separator = "-")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Day of Finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_dy(dtc_var = "QSDTC", ref_var = "RFSTDTC")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_direct(column = "dsscat_raw")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBTESTDEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Test Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_ct(column = "LBTESTCD")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSVISIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived Visit Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSVISN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived Visit Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSVISDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_if_else(condition = "toupper(aeser_raw) == 'Y'", true_value = "Y", false_value = "N")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derive_case_when(conditions = list("is.na(qsorres) | qsorres == ''" = "QUESTION NOT ASKED"), default = NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDYID, USUBJID, DSSTDTC, DSCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One record per disposition event per subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDYID, USUBJID, EXTRT, EXSTDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One record per exposure constant dosing interval per subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDYID, USUBJID, MHTERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One record per medical history event per subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDYID, USUBJID, QSTESTCD, QSDTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionnaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One record per questionnaire per visit per subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYSBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIABP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEIGHT</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +2280,110 @@
         <v>47</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>546</v>
+      </c>
+      <c r="G10" t="s">
+        <v>547</v>
+      </c>
+      <c r="H10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" t="s">
+        <v>549</v>
+      </c>
+      <c r="G11" t="s">
+        <v>550</v>
+      </c>
+      <c r="H11" t="s">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1486,6 +2508,131 @@
       </c>
       <c r="I4"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1580,6 +2727,106 @@
         <v>165</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1596,288 +2843,461 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>411</v>
+      </c>
+      <c r="D2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>419</v>
+      </c>
+      <c r="D4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>172</v>
+      <c r="D5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>426</v>
+      </c>
+      <c r="D6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>430</v>
+      </c>
+      <c r="D7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>264</v>
+      </c>
+      <c r="D8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>437</v>
+      </c>
+      <c r="D9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>441</v>
+      </c>
+      <c r="D10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" t="s">
         <v>183</v>
       </c>
-      <c r="C11" t="s">
-        <v>184</v>
+      <c r="D11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>448</v>
+      </c>
+      <c r="D12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>452</v>
+      </c>
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>456</v>
+      </c>
+      <c r="D14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>460</v>
+      </c>
+      <c r="D15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>463</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>464</v>
+      </c>
+      <c r="D16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>467</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>468</v>
+      </c>
+      <c r="D17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>471</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>472</v>
+      </c>
+      <c r="D18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" t="s">
         <v>199</v>
       </c>
-      <c r="C19" t="s">
-        <v>200</v>
+      <c r="D19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" t="s">
         <v>201</v>
       </c>
-      <c r="C20" t="s">
-        <v>202</v>
+      <c r="D20" t="s">
+        <v>479</v>
+      </c>
+      <c r="E20" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>482</v>
+      </c>
+      <c r="D21" t="s">
+        <v>483</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>486</v>
+      </c>
+      <c r="D22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>489</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>490</v>
+      </c>
+      <c r="D23" t="s">
+        <v>491</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>492</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>494</v>
+      </c>
+      <c r="D24" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>497</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>498</v>
+      </c>
+      <c r="D25" t="s">
+        <v>499</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>501</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>502</v>
+      </c>
+      <c r="D26" t="s">
+        <v>503</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D27" t="s">
+        <v>507</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4195,9 +5615,2970 @@
       </c>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>250</v>
-      </c>
-      <c r="S45"/>
+        <v>251</v>
+      </c>
+      <c r="S45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" t="s">
+        <v>253</v>
+      </c>
+      <c r="J46" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q46"/>
+      <c r="R46" t="s">
+        <v>255</v>
+      </c>
+      <c r="S46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" t="s">
+        <v>256</v>
+      </c>
+      <c r="J47" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q47"/>
+      <c r="R47" t="s">
+        <v>538</v>
+      </c>
+      <c r="S47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" t="s">
+        <v>260</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" t="n">
+        <v>200</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48" t="s">
+        <v>225</v>
+      </c>
+      <c r="P48" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q48"/>
+      <c r="R48" t="s">
+        <v>261</v>
+      </c>
+      <c r="S48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" t="s">
+        <v>262</v>
+      </c>
+      <c r="J49" t="s">
+        <v>263</v>
+      </c>
+      <c r="K49" t="s">
+        <v>89</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q49"/>
+      <c r="R49" t="s">
+        <v>264</v>
+      </c>
+      <c r="S49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" t="s">
+        <v>266</v>
+      </c>
+      <c r="K50" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" t="n">
+        <v>40</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50"/>
+      <c r="R50" t="s">
+        <v>267</v>
+      </c>
+      <c r="S50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q51"/>
+      <c r="R51" t="s">
+        <v>270</v>
+      </c>
+      <c r="S51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" t="s">
+        <v>271</v>
+      </c>
+      <c r="J52" t="s">
+        <v>272</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" t="n">
+        <v>20</v>
+      </c>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q52"/>
+      <c r="R52" t="s">
+        <v>273</v>
+      </c>
+      <c r="S52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" t="s">
+        <v>274</v>
+      </c>
+      <c r="J53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53"/>
+      <c r="N53" t="s">
+        <v>274</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q53"/>
+      <c r="R53" t="s">
+        <v>276</v>
+      </c>
+      <c r="S53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" t="n">
+        <v>200</v>
+      </c>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q54"/>
+      <c r="R54" t="s">
+        <v>279</v>
+      </c>
+      <c r="S54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>215</v>
+      </c>
+      <c r="I55" t="s">
+        <v>280</v>
+      </c>
+      <c r="J55" t="s">
+        <v>281</v>
+      </c>
+      <c r="K55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" t="n">
+        <v>20</v>
+      </c>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q55"/>
+      <c r="R55" t="s">
+        <v>282</v>
+      </c>
+      <c r="S55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" t="s">
+        <v>283</v>
+      </c>
+      <c r="J56" t="s">
+        <v>284</v>
+      </c>
+      <c r="K56" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" t="n">
+        <v>200</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q56"/>
+      <c r="R56" t="s">
+        <v>285</v>
+      </c>
+      <c r="S56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s">
+        <v>215</v>
+      </c>
+      <c r="I57" t="s">
+        <v>286</v>
+      </c>
+      <c r="J57" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" t="n">
+        <v>200</v>
+      </c>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57" t="s">
+        <v>225</v>
+      </c>
+      <c r="P57" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q57"/>
+      <c r="R57" t="s">
+        <v>288</v>
+      </c>
+      <c r="S57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58" t="s">
+        <v>289</v>
+      </c>
+      <c r="J58" t="s">
+        <v>290</v>
+      </c>
+      <c r="K58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58" t="n">
+        <v>40</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58" t="s">
+        <v>291</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P58" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58"/>
+      <c r="R58" t="s">
+        <v>292</v>
+      </c>
+      <c r="S58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" t="s">
+        <v>293</v>
+      </c>
+      <c r="J59" t="s">
+        <v>294</v>
+      </c>
+      <c r="K59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" t="n">
+        <v>20</v>
+      </c>
+      <c r="M59"/>
+      <c r="N59" t="s">
+        <v>295</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59" t="s">
+        <v>296</v>
+      </c>
+      <c r="S59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>215</v>
+      </c>
+      <c r="I60" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60" t="s">
+        <v>298</v>
+      </c>
+      <c r="K60" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60" t="s">
+        <v>228</v>
+      </c>
+      <c r="P60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60"/>
+      <c r="R60" t="s">
+        <v>299</v>
+      </c>
+      <c r="S60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>215</v>
+      </c>
+      <c r="I61" t="s">
+        <v>300</v>
+      </c>
+      <c r="J61" t="s">
+        <v>301</v>
+      </c>
+      <c r="K61" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" t="n">
+        <v>19</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61"/>
+      <c r="R61" t="s">
+        <v>302</v>
+      </c>
+      <c r="S61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>215</v>
+      </c>
+      <c r="I62" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62" t="s">
+        <v>89</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8</v>
+      </c>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62"/>
+      <c r="R62" t="s">
+        <v>305</v>
+      </c>
+      <c r="S62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" t="s">
+        <v>306</v>
+      </c>
+      <c r="J63" t="s">
+        <v>307</v>
+      </c>
+      <c r="K63" t="s">
+        <v>89</v>
+      </c>
+      <c r="L63" t="n">
+        <v>8</v>
+      </c>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63"/>
+      <c r="R63" t="s">
+        <v>308</v>
+      </c>
+      <c r="S63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s">
+        <v>215</v>
+      </c>
+      <c r="I64" t="s">
+        <v>309</v>
+      </c>
+      <c r="J64" t="s">
+        <v>310</v>
+      </c>
+      <c r="K64" t="s">
+        <v>65</v>
+      </c>
+      <c r="L64" t="n">
+        <v>40</v>
+      </c>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q64"/>
+      <c r="R64" t="s">
+        <v>311</v>
+      </c>
+      <c r="S64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s">
+        <v>215</v>
+      </c>
+      <c r="I65" t="s">
+        <v>312</v>
+      </c>
+      <c r="J65" t="s">
+        <v>313</v>
+      </c>
+      <c r="K65" t="s">
+        <v>65</v>
+      </c>
+      <c r="L65" t="n">
+        <v>20</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q65"/>
+      <c r="R65" t="s">
+        <v>314</v>
+      </c>
+      <c r="S65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>215</v>
+      </c>
+      <c r="I66" t="s">
+        <v>315</v>
+      </c>
+      <c r="J66" t="s">
+        <v>316</v>
+      </c>
+      <c r="K66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q66"/>
+      <c r="R66" t="s">
+        <v>317</v>
+      </c>
+      <c r="S66" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67" t="s">
+        <v>319</v>
+      </c>
+      <c r="H67" t="s">
+        <v>215</v>
+      </c>
+      <c r="I67" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67" t="n">
+        <v>20</v>
+      </c>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q67"/>
+      <c r="R67" t="s">
+        <v>68</v>
+      </c>
+      <c r="S67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>319</v>
+      </c>
+      <c r="H68" t="s">
+        <v>215</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q68"/>
+      <c r="R68" t="s">
+        <v>320</v>
+      </c>
+      <c r="S68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69" t="s">
+        <v>319</v>
+      </c>
+      <c r="H69" t="s">
+        <v>215</v>
+      </c>
+      <c r="I69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" t="s">
+        <v>72</v>
+      </c>
+      <c r="K69" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" t="n">
+        <v>40</v>
+      </c>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q69"/>
+      <c r="R69" t="s">
+        <v>93</v>
+      </c>
+      <c r="S69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" t="s">
+        <v>319</v>
+      </c>
+      <c r="H70" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" t="s">
+        <v>321</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+      <c r="K70" t="s">
+        <v>89</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8</v>
+      </c>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q70"/>
+      <c r="R70" t="s">
+        <v>121</v>
+      </c>
+      <c r="S70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>319</v>
+      </c>
+      <c r="H71" t="s">
+        <v>215</v>
+      </c>
+      <c r="I71" t="s">
+        <v>322</v>
+      </c>
+      <c r="J71" t="s">
+        <v>323</v>
+      </c>
+      <c r="K71" t="s">
+        <v>65</v>
+      </c>
+      <c r="L71" t="n">
+        <v>200</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q71"/>
+      <c r="R71" t="s">
+        <v>324</v>
+      </c>
+      <c r="S71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>319</v>
+      </c>
+      <c r="H72" t="s">
+        <v>215</v>
+      </c>
+      <c r="I72" t="s">
+        <v>325</v>
+      </c>
+      <c r="J72" t="s">
+        <v>326</v>
+      </c>
+      <c r="K72" t="s">
+        <v>65</v>
+      </c>
+      <c r="L72" t="n">
+        <v>200</v>
+      </c>
+      <c r="M72"/>
+      <c r="N72" t="s">
+        <v>327</v>
+      </c>
+      <c r="O72" t="s">
+        <v>225</v>
+      </c>
+      <c r="P72" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q72"/>
+      <c r="R72" t="s">
+        <v>328</v>
+      </c>
+      <c r="S72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>319</v>
+      </c>
+      <c r="H73" t="s">
+        <v>215</v>
+      </c>
+      <c r="I73" t="s">
+        <v>327</v>
+      </c>
+      <c r="J73" t="s">
+        <v>329</v>
+      </c>
+      <c r="K73" t="s">
+        <v>65</v>
+      </c>
+      <c r="L73" t="n">
+        <v>40</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73" t="s">
+        <v>327</v>
+      </c>
+      <c r="O73" t="s">
+        <v>330</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73"/>
+      <c r="R73" t="s">
+        <v>331</v>
+      </c>
+      <c r="S73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>319</v>
+      </c>
+      <c r="H74" t="s">
+        <v>215</v>
+      </c>
+      <c r="I74" t="s">
+        <v>332</v>
+      </c>
+      <c r="J74" t="s">
+        <v>333</v>
+      </c>
+      <c r="K74" t="s">
+        <v>80</v>
+      </c>
+      <c r="L74" t="n">
+        <v>19</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74" t="s">
+        <v>81</v>
+      </c>
+      <c r="P74" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74"/>
+      <c r="R74" t="s">
+        <v>334</v>
+      </c>
+      <c r="S74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>335</v>
+      </c>
+      <c r="H75" t="s">
+        <v>215</v>
+      </c>
+      <c r="I75" t="s">
+        <v>63</v>
+      </c>
+      <c r="J75" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" t="s">
+        <v>65</v>
+      </c>
+      <c r="L75" t="n">
+        <v>20</v>
+      </c>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+      <c r="P75" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q75"/>
+      <c r="R75" t="s">
+        <v>68</v>
+      </c>
+      <c r="S75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76" t="s">
+        <v>335</v>
+      </c>
+      <c r="H76" t="s">
+        <v>215</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>69</v>
+      </c>
+      <c r="K76" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q76"/>
+      <c r="R76" t="s">
+        <v>336</v>
+      </c>
+      <c r="S76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" t="s">
+        <v>215</v>
+      </c>
+      <c r="I77" t="s">
+        <v>71</v>
+      </c>
+      <c r="J77" t="s">
+        <v>72</v>
+      </c>
+      <c r="K77" t="s">
+        <v>65</v>
+      </c>
+      <c r="L77" t="n">
+        <v>40</v>
+      </c>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77" t="s">
+        <v>66</v>
+      </c>
+      <c r="P77" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q77"/>
+      <c r="R77" t="s">
+        <v>93</v>
+      </c>
+      <c r="S77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" t="s">
+        <v>215</v>
+      </c>
+      <c r="I78" t="s">
+        <v>337</v>
+      </c>
+      <c r="J78" t="s">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s">
+        <v>89</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8</v>
+      </c>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q78"/>
+      <c r="R78" t="s">
+        <v>121</v>
+      </c>
+      <c r="S78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H79" t="s">
+        <v>215</v>
+      </c>
+      <c r="I79" t="s">
+        <v>338</v>
+      </c>
+      <c r="J79" t="s">
+        <v>339</v>
+      </c>
+      <c r="K79" t="s">
+        <v>65</v>
+      </c>
+      <c r="L79" t="n">
+        <v>200</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79" t="s">
+        <v>102</v>
+      </c>
+      <c r="P79" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q79"/>
+      <c r="R79" t="s">
+        <v>340</v>
+      </c>
+      <c r="S79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>335</v>
+      </c>
+      <c r="H80" t="s">
+        <v>215</v>
+      </c>
+      <c r="I80" t="s">
+        <v>341</v>
+      </c>
+      <c r="J80" t="s">
+        <v>342</v>
+      </c>
+      <c r="K80" t="s">
+        <v>157</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8</v>
+      </c>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80" t="s">
+        <v>90</v>
+      </c>
+      <c r="P80" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80"/>
+      <c r="R80" t="s">
+        <v>343</v>
+      </c>
+      <c r="S80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81" t="s">
+        <v>335</v>
+      </c>
+      <c r="H81" t="s">
+        <v>215</v>
+      </c>
+      <c r="I81" t="s">
+        <v>344</v>
+      </c>
+      <c r="J81" t="s">
+        <v>345</v>
+      </c>
+      <c r="K81" t="s">
+        <v>65</v>
+      </c>
+      <c r="L81" t="n">
+        <v>40</v>
+      </c>
+      <c r="M81"/>
+      <c r="N81" t="s">
+        <v>140</v>
+      </c>
+      <c r="O81" t="s">
+        <v>231</v>
+      </c>
+      <c r="P81" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q81"/>
+      <c r="R81" t="s">
+        <v>346</v>
+      </c>
+      <c r="S81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82" t="s">
+        <v>335</v>
+      </c>
+      <c r="H82" t="s">
+        <v>215</v>
+      </c>
+      <c r="I82" t="s">
+        <v>347</v>
+      </c>
+      <c r="J82" t="s">
+        <v>290</v>
+      </c>
+      <c r="K82" t="s">
+        <v>65</v>
+      </c>
+      <c r="L82" t="n">
+        <v>40</v>
+      </c>
+      <c r="M82"/>
+      <c r="N82" t="s">
+        <v>291</v>
+      </c>
+      <c r="O82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q82"/>
+      <c r="R82" t="s">
+        <v>348</v>
+      </c>
+      <c r="S82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83" t="s">
+        <v>335</v>
+      </c>
+      <c r="H83" t="s">
+        <v>215</v>
+      </c>
+      <c r="I83" t="s">
+        <v>349</v>
+      </c>
+      <c r="J83" t="s">
+        <v>294</v>
+      </c>
+      <c r="K83" t="s">
+        <v>65</v>
+      </c>
+      <c r="L83" t="n">
+        <v>20</v>
+      </c>
+      <c r="M83"/>
+      <c r="N83" t="s">
+        <v>295</v>
+      </c>
+      <c r="O83" t="s">
+        <v>90</v>
+      </c>
+      <c r="P83" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q83"/>
+      <c r="R83" t="s">
+        <v>350</v>
+      </c>
+      <c r="S83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>335</v>
+      </c>
+      <c r="H84" t="s">
+        <v>215</v>
+      </c>
+      <c r="I84" t="s">
+        <v>351</v>
+      </c>
+      <c r="J84" t="s">
+        <v>352</v>
+      </c>
+      <c r="K84" t="s">
+        <v>80</v>
+      </c>
+      <c r="L84" t="n">
+        <v>19</v>
+      </c>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q84"/>
+      <c r="R84" t="s">
+        <v>353</v>
+      </c>
+      <c r="S84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85" t="s">
+        <v>335</v>
+      </c>
+      <c r="H85" t="s">
+        <v>215</v>
+      </c>
+      <c r="I85" t="s">
+        <v>354</v>
+      </c>
+      <c r="J85" t="s">
+        <v>355</v>
+      </c>
+      <c r="K85" t="s">
+        <v>80</v>
+      </c>
+      <c r="L85" t="n">
+        <v>19</v>
+      </c>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q85"/>
+      <c r="R85" t="s">
+        <v>356</v>
+      </c>
+      <c r="S85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>357</v>
+      </c>
+      <c r="H86" t="s">
+        <v>215</v>
+      </c>
+      <c r="I86" t="s">
+        <v>63</v>
+      </c>
+      <c r="J86" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" t="s">
+        <v>65</v>
+      </c>
+      <c r="L86" t="n">
+        <v>20</v>
+      </c>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q86"/>
+      <c r="R86" t="s">
+        <v>68</v>
+      </c>
+      <c r="S86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" t="s">
+        <v>215</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K87" t="s">
+        <v>65</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87" t="s">
+        <v>66</v>
+      </c>
+      <c r="P87" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q87"/>
+      <c r="R87" t="s">
+        <v>358</v>
+      </c>
+      <c r="S87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88" t="s">
+        <v>357</v>
+      </c>
+      <c r="H88" t="s">
+        <v>215</v>
+      </c>
+      <c r="I88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J88" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" t="s">
+        <v>65</v>
+      </c>
+      <c r="L88" t="n">
+        <v>40</v>
+      </c>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q88"/>
+      <c r="R88" t="s">
+        <v>93</v>
+      </c>
+      <c r="S88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+      <c r="H89" t="s">
+        <v>215</v>
+      </c>
+      <c r="I89" t="s">
+        <v>359</v>
+      </c>
+      <c r="J89" t="s">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s">
+        <v>89</v>
+      </c>
+      <c r="L89" t="n">
+        <v>8</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q89"/>
+      <c r="R89" t="s">
+        <v>121</v>
+      </c>
+      <c r="S89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" t="s">
+        <v>357</v>
+      </c>
+      <c r="H90" t="s">
+        <v>215</v>
+      </c>
+      <c r="I90" t="s">
+        <v>360</v>
+      </c>
+      <c r="J90" t="s">
+        <v>361</v>
+      </c>
+      <c r="K90" t="s">
+        <v>65</v>
+      </c>
+      <c r="L90" t="n">
+        <v>200</v>
+      </c>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90" t="s">
+        <v>102</v>
+      </c>
+      <c r="P90" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q90"/>
+      <c r="R90" t="s">
+        <v>362</v>
+      </c>
+      <c r="S90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91" t="s">
+        <v>357</v>
+      </c>
+      <c r="H91" t="s">
+        <v>215</v>
+      </c>
+      <c r="I91" t="s">
+        <v>363</v>
+      </c>
+      <c r="J91" t="s">
+        <v>260</v>
+      </c>
+      <c r="K91" t="s">
+        <v>65</v>
+      </c>
+      <c r="L91" t="n">
+        <v>200</v>
+      </c>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91" t="s">
+        <v>225</v>
+      </c>
+      <c r="P91" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q91"/>
+      <c r="R91" t="s">
+        <v>364</v>
+      </c>
+      <c r="S91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92" t="s">
+        <v>357</v>
+      </c>
+      <c r="H92" t="s">
+        <v>215</v>
+      </c>
+      <c r="I92" t="s">
+        <v>365</v>
+      </c>
+      <c r="J92" t="s">
+        <v>366</v>
+      </c>
+      <c r="K92" t="s">
+        <v>65</v>
+      </c>
+      <c r="L92" t="n">
+        <v>40</v>
+      </c>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92" t="s">
+        <v>330</v>
+      </c>
+      <c r="P92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q92"/>
+      <c r="R92" t="s">
+        <v>367</v>
+      </c>
+      <c r="S92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" t="s">
+        <v>357</v>
+      </c>
+      <c r="H93" t="s">
+        <v>215</v>
+      </c>
+      <c r="I93" t="s">
+        <v>368</v>
+      </c>
+      <c r="J93" t="s">
+        <v>369</v>
+      </c>
+      <c r="K93" t="s">
+        <v>80</v>
+      </c>
+      <c r="L93" t="n">
+        <v>19</v>
+      </c>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q93"/>
+      <c r="R93" t="s">
+        <v>370</v>
+      </c>
+      <c r="S93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94" t="s">
+        <v>357</v>
+      </c>
+      <c r="H94" t="s">
+        <v>215</v>
+      </c>
+      <c r="I94" t="s">
+        <v>371</v>
+      </c>
+      <c r="J94" t="s">
+        <v>372</v>
+      </c>
+      <c r="K94" t="s">
+        <v>80</v>
+      </c>
+      <c r="L94" t="n">
+        <v>19</v>
+      </c>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q94"/>
+      <c r="R94" t="s">
+        <v>373</v>
+      </c>
+      <c r="S94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95" t="s">
+        <v>374</v>
+      </c>
+      <c r="H95" t="s">
+        <v>215</v>
+      </c>
+      <c r="I95" t="s">
+        <v>63</v>
+      </c>
+      <c r="J95" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" t="s">
+        <v>65</v>
+      </c>
+      <c r="L95" t="n">
+        <v>20</v>
+      </c>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95" t="s">
+        <v>66</v>
+      </c>
+      <c r="P95" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q95"/>
+      <c r="R95" t="s">
+        <v>68</v>
+      </c>
+      <c r="S95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96" t="s">
+        <v>374</v>
+      </c>
+      <c r="H96" t="s">
+        <v>215</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>69</v>
+      </c>
+      <c r="K96" t="s">
+        <v>65</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q96"/>
+      <c r="R96" t="s">
+        <v>375</v>
+      </c>
+      <c r="S96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>374</v>
+      </c>
+      <c r="H97" t="s">
+        <v>215</v>
+      </c>
+      <c r="I97" t="s">
+        <v>71</v>
+      </c>
+      <c r="J97" t="s">
+        <v>72</v>
+      </c>
+      <c r="K97" t="s">
+        <v>65</v>
+      </c>
+      <c r="L97" t="n">
+        <v>40</v>
+      </c>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97" t="s">
+        <v>66</v>
+      </c>
+      <c r="P97" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q97"/>
+      <c r="R97" t="s">
+        <v>93</v>
+      </c>
+      <c r="S97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98" t="s">
+        <v>374</v>
+      </c>
+      <c r="H98" t="s">
+        <v>215</v>
+      </c>
+      <c r="I98" t="s">
+        <v>376</v>
+      </c>
+      <c r="J98" t="s">
+        <v>96</v>
+      </c>
+      <c r="K98" t="s">
+        <v>89</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8</v>
+      </c>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98" t="s">
+        <v>66</v>
+      </c>
+      <c r="P98" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q98"/>
+      <c r="R98" t="s">
+        <v>121</v>
+      </c>
+      <c r="S98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99" t="s">
+        <v>374</v>
+      </c>
+      <c r="H99" t="s">
+        <v>215</v>
+      </c>
+      <c r="I99" t="s">
+        <v>377</v>
+      </c>
+      <c r="J99" t="s">
+        <v>378</v>
+      </c>
+      <c r="K99" t="s">
+        <v>65</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8</v>
+      </c>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99" t="s">
+        <v>102</v>
+      </c>
+      <c r="P99" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q99"/>
+      <c r="R99" t="s">
+        <v>379</v>
+      </c>
+      <c r="S99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100" t="s">
+        <v>374</v>
+      </c>
+      <c r="H100" t="s">
+        <v>215</v>
+      </c>
+      <c r="I100" t="s">
+        <v>380</v>
+      </c>
+      <c r="J100" t="s">
+        <v>381</v>
+      </c>
+      <c r="K100" t="s">
+        <v>65</v>
+      </c>
+      <c r="L100" t="n">
+        <v>40</v>
+      </c>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100" t="s">
+        <v>225</v>
+      </c>
+      <c r="P100" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q100"/>
+      <c r="R100" t="s">
+        <v>382</v>
+      </c>
+      <c r="S100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101" t="s">
+        <v>374</v>
+      </c>
+      <c r="H101" t="s">
+        <v>215</v>
+      </c>
+      <c r="I101" t="s">
+        <v>383</v>
+      </c>
+      <c r="J101" t="s">
+        <v>384</v>
+      </c>
+      <c r="K101" t="s">
+        <v>65</v>
+      </c>
+      <c r="L101" t="n">
+        <v>200</v>
+      </c>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101" t="s">
+        <v>330</v>
+      </c>
+      <c r="P101" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q101"/>
+      <c r="R101" t="s">
+        <v>385</v>
+      </c>
+      <c r="S101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" t="s">
+        <v>374</v>
+      </c>
+      <c r="H102" t="s">
+        <v>215</v>
+      </c>
+      <c r="I102" t="s">
+        <v>386</v>
+      </c>
+      <c r="J102" t="s">
+        <v>387</v>
+      </c>
+      <c r="K102" t="s">
+        <v>65</v>
+      </c>
+      <c r="L102" t="n">
+        <v>200</v>
+      </c>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102" t="s">
+        <v>228</v>
+      </c>
+      <c r="P102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q102"/>
+      <c r="R102" t="s">
+        <v>388</v>
+      </c>
+      <c r="S102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103" t="s">
+        <v>374</v>
+      </c>
+      <c r="H103" t="s">
+        <v>215</v>
+      </c>
+      <c r="I103" t="s">
+        <v>389</v>
+      </c>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+      <c r="K103" t="s">
+        <v>65</v>
+      </c>
+      <c r="L103" t="n">
+        <v>40</v>
+      </c>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103" t="s">
+        <v>231</v>
+      </c>
+      <c r="P103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q103"/>
+      <c r="R103" t="s">
+        <v>390</v>
+      </c>
+      <c r="S103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>374</v>
+      </c>
+      <c r="H104" t="s">
+        <v>215</v>
+      </c>
+      <c r="I104" t="s">
+        <v>391</v>
+      </c>
+      <c r="J104" t="s">
+        <v>392</v>
+      </c>
+      <c r="K104" t="s">
+        <v>80</v>
+      </c>
+      <c r="L104" t="n">
+        <v>19</v>
+      </c>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104" t="s">
+        <v>81</v>
+      </c>
+      <c r="P104" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q104"/>
+      <c r="R104" t="s">
+        <v>393</v>
+      </c>
+      <c r="S104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105" t="s">
+        <v>374</v>
+      </c>
+      <c r="H105" t="s">
+        <v>215</v>
+      </c>
+      <c r="I105" t="s">
+        <v>394</v>
+      </c>
+      <c r="J105" t="s">
+        <v>395</v>
+      </c>
+      <c r="K105" t="s">
+        <v>65</v>
+      </c>
+      <c r="L105" t="n">
+        <v>200</v>
+      </c>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105" t="s">
+        <v>90</v>
+      </c>
+      <c r="P105" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q105"/>
+      <c r="R105" t="s">
+        <v>539</v>
+      </c>
+      <c r="S105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" t="s">
+        <v>374</v>
+      </c>
+      <c r="H106" t="s">
+        <v>215</v>
+      </c>
+      <c r="I106" t="s">
+        <v>397</v>
+      </c>
+      <c r="J106" t="s">
+        <v>398</v>
+      </c>
+      <c r="K106" t="s">
+        <v>65</v>
+      </c>
+      <c r="L106" t="n">
+        <v>40</v>
+      </c>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q106"/>
+      <c r="R106" t="s">
+        <v>399</v>
+      </c>
+      <c r="S106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>215</v>
+      </c>
+      <c r="I107" t="s">
+        <v>523</v>
+      </c>
+      <c r="J107" t="s">
+        <v>524</v>
+      </c>
+      <c r="K107" t="s">
+        <v>65</v>
+      </c>
+      <c r="L107" t="n">
+        <v>40</v>
+      </c>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q107"/>
+      <c r="R107" t="s">
+        <v>525</v>
+      </c>
+      <c r="S107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" t="s">
+        <v>357</v>
+      </c>
+      <c r="H108" t="s">
+        <v>215</v>
+      </c>
+      <c r="I108" t="s">
+        <v>511</v>
+      </c>
+      <c r="J108" t="s">
+        <v>512</v>
+      </c>
+      <c r="K108" t="s">
+        <v>65</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4</v>
+      </c>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108" t="s">
+        <v>81</v>
+      </c>
+      <c r="P108" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q108"/>
+      <c r="R108" t="s">
+        <v>513</v>
+      </c>
+      <c r="S108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109" t="s">
+        <v>374</v>
+      </c>
+      <c r="H109" t="s">
+        <v>215</v>
+      </c>
+      <c r="I109" t="s">
+        <v>244</v>
+      </c>
+      <c r="J109" t="s">
+        <v>245</v>
+      </c>
+      <c r="K109" t="s">
+        <v>65</v>
+      </c>
+      <c r="L109" t="n">
+        <v>40</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109" t="s">
+        <v>81</v>
+      </c>
+      <c r="P109" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q109"/>
+      <c r="R109" t="s">
+        <v>246</v>
+      </c>
+      <c r="S109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110" t="s">
+        <v>374</v>
+      </c>
+      <c r="H110" t="s">
+        <v>215</v>
+      </c>
+      <c r="I110" t="s">
+        <v>526</v>
+      </c>
+      <c r="J110" t="s">
+        <v>527</v>
+      </c>
+      <c r="K110" t="s">
+        <v>89</v>
+      </c>
+      <c r="L110" t="n">
+        <v>8</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110" t="s">
+        <v>81</v>
+      </c>
+      <c r="P110" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q110"/>
+      <c r="R110" t="s">
+        <v>528</v>
+      </c>
+      <c r="S110" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111" t="s">
+        <v>374</v>
+      </c>
+      <c r="H111" t="s">
+        <v>215</v>
+      </c>
+      <c r="I111" t="s">
+        <v>241</v>
+      </c>
+      <c r="J111" t="s">
+        <v>242</v>
+      </c>
+      <c r="K111" t="s">
+        <v>157</v>
+      </c>
+      <c r="L111" t="n">
+        <v>8</v>
+      </c>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111" t="s">
+        <v>81</v>
+      </c>
+      <c r="P111" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q111"/>
+      <c r="R111" t="s">
+        <v>243</v>
+      </c>
+      <c r="S111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112" t="s">
+        <v>319</v>
+      </c>
+      <c r="H112" t="s">
+        <v>215</v>
+      </c>
+      <c r="I112" t="s">
+        <v>519</v>
+      </c>
+      <c r="J112" t="s">
+        <v>520</v>
+      </c>
+      <c r="K112" t="s">
+        <v>65</v>
+      </c>
+      <c r="L112" t="n">
+        <v>40</v>
+      </c>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112" t="s">
+        <v>330</v>
+      </c>
+      <c r="P112" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q112"/>
+      <c r="R112" t="s">
+        <v>529</v>
+      </c>
+      <c r="S112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s">
+        <v>215</v>
+      </c>
+      <c r="I113" t="s">
+        <v>530</v>
+      </c>
+      <c r="J113" t="s">
+        <v>531</v>
+      </c>
+      <c r="K113" t="s">
+        <v>65</v>
+      </c>
+      <c r="L113" t="n">
+        <v>200</v>
+      </c>
+      <c r="M113"/>
+      <c r="N113" t="s">
+        <v>123</v>
+      </c>
+      <c r="O113" t="s">
+        <v>225</v>
+      </c>
+      <c r="P113" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q113"/>
+      <c r="R113" t="s">
+        <v>532</v>
+      </c>
+      <c r="S113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" t="s">
+        <v>215</v>
+      </c>
+      <c r="I114" t="s">
+        <v>533</v>
+      </c>
+      <c r="J114" t="s">
+        <v>534</v>
+      </c>
+      <c r="K114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L114" t="n">
+        <v>40</v>
+      </c>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114" t="s">
+        <v>81</v>
+      </c>
+      <c r="P114" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q114"/>
+      <c r="R114" t="s">
+        <v>514</v>
+      </c>
+      <c r="S114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" t="s">
+        <v>215</v>
+      </c>
+      <c r="I115" t="s">
+        <v>535</v>
+      </c>
+      <c r="J115" t="s">
+        <v>536</v>
+      </c>
+      <c r="K115" t="s">
+        <v>157</v>
+      </c>
+      <c r="L115" t="n">
+        <v>8</v>
+      </c>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115" t="s">
+        <v>81</v>
+      </c>
+      <c r="P115" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q115"/>
+      <c r="R115" t="s">
+        <v>518</v>
+      </c>
+      <c r="S115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" t="s">
+        <v>215</v>
+      </c>
+      <c r="I116" t="s">
+        <v>537</v>
+      </c>
+      <c r="J116" t="s">
+        <v>516</v>
+      </c>
+      <c r="K116" t="s">
+        <v>89</v>
+      </c>
+      <c r="L116" t="n">
+        <v>8</v>
+      </c>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116" t="s">
+        <v>81</v>
+      </c>
+      <c r="P116" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q116"/>
+      <c r="R116" t="s">
+        <v>517</v>
+      </c>
+      <c r="S116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
